--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_Conductor_Selector_Default.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_Conductor_Selector_Default.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -435,7 +435,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="B17" s="2">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -586,34 +586,89 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="B18" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>500</v>
+        <v>315</v>
       </c>
       <c r="B19" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
+        <v>320</v>
+      </c>
+      <c r="B20" s="2">
+        <v>185</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>350</v>
+      </c>
+      <c r="B21" s="2">
+        <v>240</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>360</v>
+      </c>
+      <c r="B22" s="2">
+        <v>240</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>400</v>
+      </c>
+      <c r="B23" s="2">
+        <v>120</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>500</v>
+      </c>
+      <c r="B24" s="2">
+        <v>150</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>630</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B25" s="2">
         <v>240</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C25" s="2">
         <v>2</v>
       </c>
     </row>
@@ -626,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -686,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -697,7 +752,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -719,7 +774,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -730,7 +785,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -771,7 +826,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2">
         <v>70</v>
@@ -782,12 +837,34 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
+        <v>160</v>
+      </c>
+      <c r="B14" s="2">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>180</v>
+      </c>
+      <c r="B15" s="2">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>200</v>
       </c>
-      <c r="B14" s="2">
-        <v>120</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B16" s="2">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
     </row>
